--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어_기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어_기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,14 +1089,414 @@
           <t>소란</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>20230108</t>
-        </is>
+      <c r="D27" t="n">
+        <v>20230108</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>08시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>inextricably</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>때때로</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>불가분하게, 밀접하게</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>06시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>run over</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>일깨우다, 불러일으키다</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>치다, 훑어보다</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>06시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>apprehensive</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>중요한, 중대한</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>불안한, 걱정되는</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>06시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>officious</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>관리할 수 있는</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>주제넘게 나서는</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>06시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>quintessential</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>낙관적인</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>전형적인</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>06시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>forestall</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>전혀다른</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>몰두시키다, 독점하다</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>06시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>precursor</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>선동자</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>전임자, 선배</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>06시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>contingent</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>우연한</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>의존적인, 의존하는, 파견단, 분담액</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>06시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>delusion</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>손해, 손상</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>환각, 환상, 망상</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>all dancing</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>열렬한</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>온갖 첨단 기술이 동원된</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>alongside</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>~대신에</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>~와 함께</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>slight</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>침입하다, 개입하다</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>무시하다, 일축하다</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>07시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>dilettante</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>예술 애호가, 아마추어의</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>07시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>consent</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>보상하다</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>의견이 일치하다, 동의하다</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>inextricably</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>당장, 즉시</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>불가분하게, 밀접하게</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230110</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>officious</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>모욕적인, 불쾌한, 공격적인</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>주제넘게 나서는</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20230110</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>07시 12분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어_기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어_기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1489,14 +1489,453 @@
           <t>주제넘게 나서는</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>20230110</t>
-        </is>
+      <c r="D43" t="n">
+        <v>20230110</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>07시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>casual</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>눈에 띄는, 현저한</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>우연한</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>05시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>apprehensive</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>불안한, 걱정되는</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>05시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>officious</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>주제넘게 나서는</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>05시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>horrid</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>무서운</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>05시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>forestall</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>몰입시키다</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>몰두시키다, 독점하다</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>05시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>replenish</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>보충하다, 보완하다</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>05시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>carry on</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>지속하다</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>계속하다</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>05시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>otherworldly</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>비현실적인, 공상적인</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>05시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>delusion</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>사기</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>환각, 환상, 망상</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>05시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>offensive</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>적대적인</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>모욕적인, 불쾌한, 공격적인</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>05시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>convenient</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>편안한</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>편리한</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>05시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>inextricably</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>발굴하다</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>불가분하게, 밀접하게</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>05시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>censor</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>지우다</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>05시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>make a face</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>얼굴을 찡그리다</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>05시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>alongside</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>~와 함께</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>05시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>contradict</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>논쟁하다, 반박하다</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>05시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>put in for</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>연기하다</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>05시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>make do with</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>임시 변통하다</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230111</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>05시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>wander</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>궁금해하다</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>배회하다</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>20230111</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>05시 09분</t>
         </is>
       </c>
     </row>
